--- a/result-montage.xlsx
+++ b/result-montage.xlsx
@@ -439,13 +439,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2815.760784313726</v>
+        <v>3396.643137254902</v>
       </c>
       <c r="C2" t="n">
-        <v>3681.40495049505</v>
+        <v>4489.012871287128</v>
       </c>
       <c r="D2" t="n">
-        <v>4157.092715231788</v>
+        <v>5322.894039735099</v>
       </c>
     </row>
     <row r="3">
@@ -455,13 +455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3016.607843137255</v>
+        <v>3255.050980392157</v>
       </c>
       <c r="C3" t="n">
-        <v>3590.235643564357</v>
+        <v>4304.234653465346</v>
       </c>
       <c r="D3" t="n">
-        <v>3949.68476821192</v>
+        <v>5457.955629139073</v>
       </c>
     </row>
     <row r="4">
@@ -471,13 +471,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2976.678431372549</v>
+        <v>3321.809803921568</v>
       </c>
       <c r="C4" t="n">
-        <v>3375.928712871287</v>
+        <v>4241.996039603961</v>
       </c>
       <c r="D4" t="n">
-        <v>4005.280132450332</v>
+        <v>5433.430463576159</v>
       </c>
     </row>
     <row r="5">
@@ -487,13 +487,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2540.121568627451</v>
+        <v>2638.509803921569</v>
       </c>
       <c r="C5" t="n">
-        <v>2802.288118811881</v>
+        <v>3210.867326732673</v>
       </c>
       <c r="D5" t="n">
-        <v>3184.334437086093</v>
+        <v>4126.474172185431</v>
       </c>
     </row>
     <row r="7">
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36785653.83333333</v>
+        <v>19143700.75</v>
       </c>
       <c r="C2" t="n">
-        <v>42933850.25</v>
+        <v>25387361.58333334</v>
       </c>
       <c r="D2" t="n">
-        <v>49432631</v>
+        <v>27790524.16666667</v>
       </c>
     </row>
     <row r="3">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39313616</v>
+        <v>19648098.75</v>
       </c>
       <c r="C3" t="n">
-        <v>42464046.25</v>
+        <v>23184464.75</v>
       </c>
       <c r="D3" t="n">
-        <v>46354958.75</v>
+        <v>28605008</v>
       </c>
     </row>
     <row r="4">
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36670541.66666666</v>
+        <v>20428715.91666666</v>
       </c>
       <c r="C4" t="n">
-        <v>42465811.91666666</v>
+        <v>23903407.5</v>
       </c>
       <c r="D4" t="n">
-        <v>48794455.41666667</v>
+        <v>29222015.58333333</v>
       </c>
     </row>
     <row r="5">
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36287926.75</v>
+        <v>18760590.58333334</v>
       </c>
       <c r="C5" t="n">
-        <v>39875822.33333333</v>
+        <v>21909364.83333334</v>
       </c>
       <c r="D5" t="n">
-        <v>42007195.33333333</v>
+        <v>25217160.33333334</v>
       </c>
     </row>
     <row r="7">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73867.10000000001</v>
+        <v>74471.60000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>84058</v>
+        <v>95027</v>
       </c>
       <c r="D2" t="n">
-        <v>94908.8</v>
+        <v>100451.6</v>
       </c>
     </row>
     <row r="3">
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78784.5</v>
+        <v>75938.2</v>
       </c>
       <c r="C3" t="n">
-        <v>82744.39999999999</v>
+        <v>85642.2</v>
       </c>
       <c r="D3" t="n">
-        <v>88309.60000000001</v>
+        <v>103013.1</v>
       </c>
     </row>
     <row r="4">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73656.10000000001</v>
+        <v>79565.8</v>
       </c>
       <c r="C4" t="n">
-        <v>83195.8</v>
+        <v>88954.39999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>93788</v>
+        <v>105820.1</v>
       </c>
     </row>
     <row r="5">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72985.7</v>
+        <v>73718.7</v>
       </c>
       <c r="C5" t="n">
-        <v>78418.39999999999</v>
+        <v>82554.5</v>
       </c>
       <c r="D5" t="n">
-        <v>80650.60000000001</v>
+        <v>91677.10000000001</v>
       </c>
     </row>
     <row r="7">
@@ -847,13 +847,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001920939085276507</v>
+        <v>0.02905828011783463</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01286653026862346</v>
+        <v>0.039456260857435</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01710206437019886</v>
+        <v>0.05133882217203874</v>
       </c>
     </row>
     <row r="3">
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03007405116342789</v>
+        <v>0.04376653786901896</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04251501830611569</v>
+        <v>0.05210557289138987</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04812725082030669</v>
+        <v>0.05526899151204401</v>
       </c>
     </row>
     <row r="4">
@@ -879,13 +879,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00263235014719011</v>
+        <v>0.02742612379772096</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01479234091035261</v>
+        <v>0.04308120811270705</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02755577136427102</v>
+        <v>0.04638114781588889</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.06987821750863688</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02072399904395903</v>
+        <v>0.07327337884645349</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03830211232106998</v>
+        <v>0.06636266134515889</v>
       </c>
     </row>
   </sheetData>
